--- a/track-map/ConePositions2.xlsx
+++ b/track-map/ConePositions2.xlsx
@@ -56,7 +56,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.60546875" customWidth="true"/>
@@ -65,98 +65,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>33.777160208419595</v>
+        <v>33.77731721325052</v>
       </c>
       <c r="B1" s="0">
-        <v>-84.399707027985073</v>
+        <v>-84.399872033582085</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>33.777213262249823</v>
+        <v>33.77743151621808</v>
       </c>
       <c r="B2" s="0">
-        <v>-84.400067749999991</v>
+        <v>-84.400387350746257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>33.777286157349891</v>
+        <v>33.777466022774327</v>
       </c>
       <c r="B3" s="0">
-        <v>-84.399675276119396</v>
+        <v>-84.39955451492537</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>33.777363365769496</v>
+        <v>33.777551426501034</v>
       </c>
       <c r="B4" s="0">
-        <v>-84.399927208955219</v>
+        <v>-84.400061503731337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>33.777367679089025</v>
+        <v>33.777564366459629</v>
       </c>
       <c r="B5" s="0">
-        <v>-84.400334257462688</v>
+        <v>-84.400351434701491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>33.777449632160106</v>
+        <v>33.777592834368527</v>
       </c>
       <c r="B6" s="0">
-        <v>-84.400153115671642</v>
+        <v>-84.399844966417902</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>33.777489314699793</v>
+        <v>33.777659259489305</v>
       </c>
       <c r="B7" s="0">
-        <v>-84.399949070895516</v>
+        <v>-84.39964092164179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>33.777525546583853</v>
+        <v>33.777660122153208</v>
       </c>
       <c r="B8" s="0">
-        <v>-84.399838720149248</v>
+        <v>-84.399731492537313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>33.777552289164944</v>
+        <v>33.777686002070396</v>
       </c>
       <c r="B9" s="0">
-        <v>-84.399537858208959</v>
+        <v>-84.400128130597011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>33.777566091787442</v>
+        <v>33.777736899240857</v>
       </c>
       <c r="B10" s="0">
-        <v>-84.399714835820888</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>33.777622596273289</v>
-      </c>
-      <c r="B11" s="0">
-        <v>-84.399990712686559</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>33.777623890269155</v>
-      </c>
-      <c r="B12" s="0">
-        <v>-84.399824145522388</v>
+        <v>-84.399864746268648</v>
       </c>
     </row>
   </sheetData>
@@ -165,7 +149,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.60546875" customWidth="true"/>
@@ -174,90 +158,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>33.777707568668049</v>
+        <v>33.777762779158039</v>
       </c>
       <c r="B1" s="0">
-        <v>-84.399910552238808</v>
+        <v>-84.400030272388051</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>33.777709293995862</v>
+        <v>33.777784345755691</v>
       </c>
       <c r="B2" s="0">
-        <v>-84.399906388059705</v>
+        <v>-84.399751272388059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>33.777764504485852</v>
+        <v>33.777826616287093</v>
       </c>
       <c r="B3" s="0">
-        <v>-84.399990712686559</v>
+        <v>-84.400005287313434</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>33.777770543133194</v>
+        <v>33.777912882677711</v>
       </c>
       <c r="B4" s="0">
-        <v>-84.399735656716416</v>
+        <v>-84.400348832089549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>33.777848182884746</v>
+        <v>33.777959466528642</v>
       </c>
       <c r="B5" s="0">
-        <v>-84.399816858208951</v>
+        <v>-84.400245768656717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>33.777894766735685</v>
+        <v>33.777962054520358</v>
       </c>
       <c r="B6" s="0">
-        <v>-84.399522242537316</v>
+        <v>-84.400120843283574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>33.777910294685995</v>
+        <v>33.777962485852314</v>
       </c>
       <c r="B7" s="0">
-        <v>-84.399851733208948</v>
+        <v>-84.399885567164176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>33.777936174603177</v>
+        <v>33.778000874396135</v>
       </c>
       <c r="B8" s="0">
-        <v>-84.399709630597016</v>
+        <v>-84.399726287313428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>33.777946526570048</v>
+        <v>33.778111295376121</v>
       </c>
       <c r="B9" s="0">
-        <v>-84.399935537313425</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>33.778042282263634</v>
-      </c>
-      <c r="B10" s="0">
-        <v>-84.399683083955225</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>33.778089728778468</v>
-      </c>
-      <c r="B11" s="0">
-        <v>-84.399881923507465</v>
+        <v>-84.400001123134331</v>
       </c>
     </row>
   </sheetData>
